--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOKUMENTY\los\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\staty\Desktop\Analizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364D6B9-AF43-4D62-8F25-89553D145D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1DA363-A674-46F3-9CC2-AEA3419D13E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="14">
   <si>
     <t>dochody</t>
   </si>
@@ -454,15 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:H1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,12 +488,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>151</v>
       </c>
       <c r="B2">
-        <v>28212.417278880279</v>
+        <v>208212.41727887999</v>
       </c>
       <c r="C2">
         <v>4794.8595282574361</v>
@@ -511,7 +514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>718</v>
       </c>
@@ -537,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>703</v>
       </c>
@@ -563,12 +566,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53</v>
       </c>
       <c r="B5">
-        <v>22245.649217300601</v>
+        <v>45.6492173006</v>
       </c>
       <c r="C5">
         <v>4106.4558025164524</v>
@@ -589,12 +592,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>61</v>
       </c>
       <c r="B6">
-        <v>30006.756761834029</v>
+        <v>3000000006.7567601</v>
       </c>
       <c r="C6">
         <v>4751.9906546212587</v>
@@ -615,7 +618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>221</v>
       </c>
@@ -641,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>620</v>
       </c>
@@ -667,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>473</v>
       </c>
@@ -693,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>308</v>
       </c>
@@ -719,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>275</v>
       </c>
@@ -745,12 +748,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>971</v>
       </c>
       <c r="B12">
-        <v>33336.246488355609</v>
+        <v>33336.246488355602</v>
       </c>
       <c r="C12">
         <v>5379.2197222107598</v>
@@ -771,12 +774,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>264</v>
       </c>
       <c r="B13">
-        <v>27014.417223603428</v>
+        <v>27000014.417223599</v>
       </c>
       <c r="C13">
         <v>4119.0810131434228</v>
@@ -797,7 +800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>415</v>
       </c>
@@ -823,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>252</v>
       </c>
@@ -849,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>791</v>
       </c>
@@ -875,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>209</v>
       </c>
@@ -901,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>292</v>
       </c>
@@ -927,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>430</v>
       </c>
@@ -953,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>929</v>
       </c>
@@ -979,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>356</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>75</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>936</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>493</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>329</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>361</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>94</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>435</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>609</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>601</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>7</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>767</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>467</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>270</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>204</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>539</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>159</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>145</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>820</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>228</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>342</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>882</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>466</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>86</v>
       </c>
@@ -1629,13 +1632,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>532</v>
       </c>
-      <c r="B46">
-        <v>29005.90290456573</v>
-      </c>
       <c r="C46">
         <v>3814.9054024099132</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>829</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>561</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>217</v>
       </c>
@@ -1733,12 +1733,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>307</v>
       </c>
       <c r="B50">
-        <v>16947.21390280078</v>
+        <v>1694999997.2139001</v>
       </c>
       <c r="C50">
         <v>3249.5371334421952</v>
@@ -1759,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>194</v>
       </c>
@@ -1785,12 +1785,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>623</v>
       </c>
       <c r="B52">
-        <v>34953.67743701359</v>
+        <v>3495999999993.6699</v>
       </c>
       <c r="C52">
         <v>5159.2722187020563</v>
@@ -1811,7 +1811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>657</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>789</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>750</v>
       </c>
@@ -1879,9 +1879,6 @@
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
       <c r="G55" t="s">
         <v>7</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>600</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>611</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>781</v>
       </c>
@@ -1967,7 +1964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>465</v>
       </c>
@@ -1993,7 +1990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>754</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>569</v>
       </c>
@@ -2045,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>626</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>461</v>
       </c>
@@ -2097,7 +2094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>478</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>392</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>947</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>734</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>474</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>834</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>98</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>857</v>
       </c>
@@ -2298,14 +2295,11 @@
       <c r="F71" t="s">
         <v>6</v>
       </c>
-      <c r="G71" t="s">
-        <v>7</v>
-      </c>
       <c r="H71" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>363</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>774</v>
       </c>
@@ -2357,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>742</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>692</v>
       </c>
@@ -2409,7 +2403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>602</v>
       </c>
@@ -2435,7 +2429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>531</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>957</v>
       </c>
@@ -2487,7 +2481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>374</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>859</v>
       </c>
@@ -2539,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>498</v>
       </c>
@@ -2565,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>384</v>
       </c>
@@ -2591,7 +2585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>961</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>959</v>
       </c>
@@ -2643,7 +2637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>70</v>
       </c>
@@ -2669,7 +2663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>354</v>
       </c>
@@ -2695,16 +2689,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>619</v>
       </c>
       <c r="B87">
         <v>32720.44824358782</v>
       </c>
-      <c r="C87">
-        <v>5395.8338643587222</v>
-      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -2721,7 +2712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>471</v>
       </c>
@@ -2747,7 +2738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>107</v>
       </c>
@@ -2773,7 +2764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>693</v>
       </c>
@@ -2799,7 +2790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>770</v>
       </c>
@@ -2825,16 +2816,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>383</v>
       </c>
       <c r="B92">
         <v>48655.696887519473</v>
       </c>
-      <c r="C92">
-        <v>5400.3824340712299</v>
-      </c>
       <c r="D92">
         <v>6</v>
       </c>
@@ -2851,13 +2839,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>560</v>
       </c>
-      <c r="B93">
-        <v>46228.655785700677</v>
-      </c>
       <c r="C93">
         <v>5731.7416999598272</v>
       </c>
@@ -2877,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>139</v>
       </c>
@@ -2903,7 +2888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>191</v>
       </c>
@@ -2929,7 +2914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>814</v>
       </c>
@@ -2955,7 +2940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>784</v>
       </c>
@@ -2981,7 +2966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>710</v>
       </c>
@@ -3007,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>453</v>
       </c>
@@ -3033,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>433</v>
       </c>
@@ -3059,7 +3044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>976</v>
       </c>
@@ -3085,7 +3070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>758</v>
       </c>
@@ -3111,7 +3096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>985</v>
       </c>
@@ -3137,19 +3122,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>700</v>
       </c>
-      <c r="B104">
-        <v>54319.850608511377</v>
-      </c>
       <c r="C104">
         <v>6445.024523160947</v>
       </c>
-      <c r="D104">
-        <v>6</v>
-      </c>
       <c r="E104">
         <v>3</v>
       </c>
@@ -3163,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>510</v>
       </c>
@@ -3189,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>943</v>
       </c>
@@ -3215,7 +3194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>345</v>
       </c>
@@ -3241,7 +3220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>468</v>
       </c>
@@ -3267,7 +3246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>47</v>
       </c>
@@ -3293,7 +3272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>875</v>
       </c>
@@ -3319,7 +3298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>538</v>
       </c>
@@ -3345,7 +3324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>65</v>
       </c>
@@ -3371,7 +3350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>382</v>
       </c>
@@ -3397,7 +3376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>681</v>
       </c>
@@ -3423,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>394</v>
       </c>
@@ -3449,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>182</v>
       </c>
@@ -3475,7 +3454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>905</v>
       </c>
@@ -3501,7 +3480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>580</v>
       </c>
@@ -3527,7 +3506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>330</v>
       </c>
@@ -3553,7 +3532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>34</v>
       </c>
@@ -3579,7 +3558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>923</v>
       </c>
@@ -3605,7 +3584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>69</v>
       </c>
@@ -3631,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42</v>
       </c>
@@ -3644,9 +3623,6 @@
       <c r="D123">
         <v>5</v>
       </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
       <c r="F123" t="s">
         <v>6</v>
       </c>
@@ -3657,7 +3633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>259</v>
       </c>
@@ -3683,7 +3659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>303</v>
       </c>
@@ -3709,7 +3685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>766</v>
       </c>
@@ -3735,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>514</v>
       </c>
@@ -3761,7 +3737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>452</v>
       </c>
@@ -3787,7 +3763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>714</v>
       </c>
@@ -3803,9 +3779,6 @@
       <c r="E129">
         <v>2</v>
       </c>
-      <c r="F129" t="s">
-        <v>6</v>
-      </c>
       <c r="G129" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +3786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>412</v>
       </c>
@@ -3839,7 +3812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>55</v>
       </c>
@@ -3865,7 +3838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>830</v>
       </c>
@@ -3891,7 +3864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>543</v>
       </c>
@@ -3917,7 +3890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>296</v>
       </c>
@@ -3943,7 +3916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>666</v>
       </c>
@@ -3969,7 +3942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>322</v>
       </c>
@@ -3995,7 +3968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>482</v>
       </c>
@@ -4021,7 +3994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>82</v>
       </c>
@@ -4047,7 +4020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>144</v>
       </c>
@@ -4073,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>266</v>
       </c>
@@ -4099,7 +4072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>760</v>
       </c>
@@ -4125,7 +4098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>395</v>
       </c>
@@ -4151,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>890</v>
       </c>
@@ -4177,7 +4150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>895</v>
       </c>
@@ -4203,7 +4176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>274</v>
       </c>
@@ -4229,7 +4202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>606</v>
       </c>
@@ -4255,7 +4228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>390</v>
       </c>
@@ -4281,7 +4254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>542</v>
       </c>
@@ -4307,7 +4280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>258</v>
       </c>
@@ -4333,7 +4306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>188</v>
       </c>
@@ -4359,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>962</v>
       </c>
@@ -4385,7 +4358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>903</v>
       </c>
@@ -4411,7 +4384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>414</v>
       </c>
@@ -4437,7 +4410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>20</v>
       </c>
@@ -4463,7 +4436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>605</v>
       </c>
@@ -4489,7 +4462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>135</v>
       </c>
@@ -4515,7 +4488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>211</v>
       </c>
@@ -4541,7 +4514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>373</v>
       </c>
@@ -4567,7 +4540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>31</v>
       </c>
@@ -4593,7 +4566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>924</v>
       </c>
@@ -4619,7 +4592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>189</v>
       </c>
@@ -4645,7 +4618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>459</v>
       </c>
@@ -4671,7 +4644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>463</v>
       </c>
@@ -4697,7 +4670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>828</v>
       </c>
@@ -4723,7 +4696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>365</v>
       </c>
@@ -4749,7 +4722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45</v>
       </c>
@@ -4775,7 +4748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>343</v>
       </c>
@@ -4801,7 +4774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>616</v>
       </c>
@@ -4827,7 +4800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>376</v>
       </c>
@@ -4853,7 +4826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>19</v>
       </c>
@@ -4879,7 +4852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>371</v>
       </c>
@@ -4905,7 +4878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>200</v>
       </c>
@@ -4931,7 +4904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>248</v>
       </c>
@@ -4957,7 +4930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>239</v>
       </c>
@@ -4983,7 +4956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>318</v>
       </c>
@@ -5009,7 +4982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>137</v>
       </c>
@@ -5035,7 +5008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>118</v>
       </c>
@@ -5061,7 +5034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>904</v>
       </c>
@@ -5087,7 +5060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>793</v>
       </c>
@@ -5113,7 +5086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>312</v>
       </c>
@@ -5139,7 +5112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>399</v>
       </c>
@@ -5165,7 +5138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>523</v>
       </c>
@@ -5191,7 +5164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>585</v>
       </c>
@@ -5217,7 +5190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>835</v>
       </c>
@@ -5243,7 +5216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>899</v>
       </c>
@@ -5269,7 +5242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>638</v>
       </c>
@@ -5295,7 +5268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>863</v>
       </c>
@@ -5321,7 +5294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>5</v>
       </c>
@@ -5347,7 +5320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>759</v>
       </c>
@@ -5373,7 +5346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>678</v>
       </c>
@@ -5399,7 +5372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>533</v>
       </c>
@@ -5425,7 +5398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>504</v>
       </c>
@@ -5451,7 +5424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>641</v>
       </c>
@@ -5477,7 +5450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>670</v>
       </c>
@@ -5503,7 +5476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>128</v>
       </c>
@@ -5529,7 +5502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>632</v>
       </c>
@@ -5555,7 +5528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>327</v>
       </c>
@@ -5581,7 +5554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>992</v>
       </c>
@@ -5607,7 +5580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>761</v>
       </c>
@@ -5633,7 +5606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>548</v>
       </c>
@@ -5659,7 +5632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>196</v>
       </c>
@@ -5685,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>698</v>
       </c>
@@ -5711,7 +5684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>556</v>
       </c>
@@ -5737,7 +5710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>424</v>
       </c>
@@ -5763,7 +5736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>927</v>
       </c>
@@ -5789,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>17</v>
       </c>
@@ -5815,7 +5788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>212</v>
       </c>
@@ -5841,7 +5814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>852</v>
       </c>
@@ -5867,7 +5840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>235</v>
       </c>
@@ -5893,7 +5866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>749</v>
       </c>
@@ -5919,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>807</v>
       </c>
@@ -5945,7 +5918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>389</v>
       </c>
@@ -5971,7 +5944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>885</v>
       </c>
@@ -5997,7 +5970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>378</v>
       </c>
@@ -6023,7 +5996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>571</v>
       </c>
@@ -6049,7 +6022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>81</v>
       </c>
@@ -6075,7 +6048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>470</v>
       </c>
@@ -6101,7 +6074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>4</v>
       </c>
@@ -6127,7 +6100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>51</v>
       </c>
@@ -6153,7 +6126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>85</v>
       </c>
@@ -6179,7 +6152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>3</v>
       </c>
@@ -6205,7 +6178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>951</v>
       </c>
@@ -6231,7 +6204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>185</v>
       </c>
@@ -6257,7 +6230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>886</v>
       </c>
@@ -6283,7 +6256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>950</v>
       </c>
@@ -6309,7 +6282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>855</v>
       </c>
@@ -6335,7 +6308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>724</v>
       </c>
@@ -6361,7 +6334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>794</v>
       </c>
@@ -6387,7 +6360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>980</v>
       </c>
@@ -6413,7 +6386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>153</v>
       </c>
@@ -6439,7 +6412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>762</v>
       </c>
@@ -6465,7 +6438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>451</v>
       </c>
@@ -6491,7 +6464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>425</v>
       </c>
@@ -6517,7 +6490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>166</v>
       </c>
@@ -6543,7 +6516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>253</v>
       </c>
@@ -6569,7 +6542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>336</v>
       </c>
@@ -6595,7 +6568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>359</v>
       </c>
@@ -6621,7 +6594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>180</v>
       </c>
@@ -6647,7 +6620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>821</v>
       </c>
@@ -6673,7 +6646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>557</v>
       </c>
@@ -6699,7 +6672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>926</v>
       </c>
@@ -6725,7 +6698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>889</v>
       </c>
@@ -6751,7 +6724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>293</v>
       </c>
@@ -6777,7 +6750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>550</v>
       </c>
@@ -6803,7 +6776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>486</v>
       </c>
@@ -6829,7 +6802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>13</v>
       </c>
@@ -6855,7 +6828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>564</v>
       </c>
@@ -6881,7 +6854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>592</v>
       </c>
@@ -6907,7 +6880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>685</v>
       </c>
@@ -6933,7 +6906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>646</v>
       </c>
@@ -6959,7 +6932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>849</v>
       </c>
@@ -6985,7 +6958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>472</v>
       </c>
@@ -7011,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>393</v>
       </c>
@@ -7037,7 +7010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>777</v>
       </c>
@@ -7063,7 +7036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>948</v>
       </c>
@@ -7089,7 +7062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>454</v>
       </c>
@@ -7115,7 +7088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>491</v>
       </c>
@@ -7141,7 +7114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>565</v>
       </c>
@@ -7167,7 +7140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>11</v>
       </c>
@@ -7193,7 +7166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>975</v>
       </c>
@@ -7219,7 +7192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>193</v>
       </c>
@@ -7245,7 +7218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>165</v>
       </c>
@@ -7271,7 +7244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>63</v>
       </c>
@@ -7297,7 +7270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>56</v>
       </c>
@@ -7323,7 +7296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>931</v>
       </c>
@@ -7349,7 +7322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>102</v>
       </c>
@@ -7375,7 +7348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>581</v>
       </c>
@@ -7401,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>689</v>
       </c>
@@ -7427,7 +7400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>534</v>
       </c>
@@ -7453,7 +7426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>607</v>
       </c>
@@ -7479,7 +7452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>496</v>
       </c>
@@ -7505,7 +7478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>579</v>
       </c>
@@ -7531,7 +7504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>130</v>
       </c>
@@ -7557,7 +7530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>380</v>
       </c>
@@ -7583,7 +7556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>640</v>
       </c>
@@ -7609,7 +7582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>624</v>
       </c>
@@ -7635,7 +7608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>351</v>
       </c>
@@ -7661,7 +7634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>756</v>
       </c>
@@ -7687,7 +7660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>891</v>
       </c>
@@ -7713,7 +7686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>555</v>
       </c>
@@ -7739,7 +7712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>853</v>
       </c>
@@ -7765,7 +7738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>240</v>
       </c>
@@ -7791,7 +7764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>349</v>
       </c>
@@ -7817,7 +7790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>311</v>
       </c>
@@ -7843,7 +7816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>598</v>
       </c>
@@ -7869,7 +7842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>513</v>
       </c>
@@ -7895,7 +7868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>314</v>
       </c>
@@ -7921,7 +7894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>36</v>
       </c>
@@ -7947,7 +7920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>966</v>
       </c>
@@ -7973,7 +7946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>338</v>
       </c>
@@ -7999,7 +7972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>161</v>
       </c>
@@ -8025,7 +7998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>613</v>
       </c>
@@ -8051,7 +8024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>455</v>
       </c>
@@ -8077,7 +8050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>366</v>
       </c>
@@ -8103,7 +8076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>226</v>
       </c>
@@ -8129,7 +8102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>198</v>
       </c>
@@ -8155,7 +8128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>260</v>
       </c>
@@ -8181,7 +8154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>546</v>
       </c>
@@ -8207,7 +8180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>74</v>
       </c>
@@ -8233,7 +8206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>408</v>
       </c>
@@ -8259,7 +8232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>290</v>
       </c>
@@ -8285,7 +8258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>953</v>
       </c>
@@ -8311,7 +8284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>10</v>
       </c>
@@ -8337,7 +8310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>110</v>
       </c>
@@ -8363,7 +8336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>449</v>
       </c>
@@ -8389,7 +8362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>261</v>
       </c>
@@ -8415,7 +8388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>868</v>
       </c>
@@ -8441,7 +8414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>409</v>
       </c>
@@ -8467,7 +8440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>824</v>
       </c>
@@ -8493,7 +8466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>50</v>
       </c>
@@ -8519,7 +8492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>866</v>
       </c>
@@ -8545,7 +8518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>786</v>
       </c>
@@ -8571,7 +8544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>113</v>
       </c>
@@ -8597,7 +8570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>319</v>
       </c>
@@ -8623,7 +8596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>437</v>
       </c>
@@ -8649,7 +8622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>262</v>
       </c>
@@ -8675,7 +8648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>423</v>
       </c>
@@ -8701,7 +8674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>688</v>
       </c>
@@ -8727,7 +8700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>837</v>
       </c>
@@ -8753,7 +8726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>582</v>
       </c>
@@ -8779,7 +8752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>207</v>
       </c>
@@ -8805,7 +8778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>288</v>
       </c>
@@ -8831,7 +8804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>629</v>
       </c>
@@ -8857,7 +8830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>68</v>
       </c>
@@ -8883,7 +8856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>735</v>
       </c>
@@ -8909,7 +8882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>400</v>
       </c>
@@ -8935,7 +8908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>995</v>
       </c>
@@ -8961,7 +8934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>134</v>
       </c>
@@ -8987,7 +8960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>375</v>
       </c>
@@ -9013,7 +8986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>411</v>
       </c>
@@ -9039,7 +9012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>176</v>
       </c>
@@ -9065,7 +9038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>187</v>
       </c>
@@ -9091,7 +9064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>59</v>
       </c>
@@ -9117,7 +9090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>387</v>
       </c>
@@ -9143,7 +9116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>672</v>
       </c>
@@ -9169,7 +9142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>663</v>
       </c>
@@ -9195,7 +9168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>509</v>
       </c>
@@ -9221,7 +9194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>604</v>
       </c>
@@ -9247,7 +9220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>826</v>
       </c>
@@ -9273,7 +9246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>851</v>
       </c>
@@ -9299,7 +9272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>223</v>
       </c>
@@ -9325,7 +9298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>421</v>
       </c>
@@ -9351,7 +9324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>103</v>
       </c>
@@ -9377,7 +9350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>23</v>
       </c>
@@ -9403,7 +9376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>991</v>
       </c>
@@ -9429,7 +9402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>818</v>
       </c>
@@ -9455,7 +9428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>422</v>
       </c>
@@ -9481,7 +9454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>334</v>
       </c>
@@ -9507,7 +9480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>350</v>
       </c>
@@ -9533,7 +9506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>105</v>
       </c>
@@ -9559,7 +9532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>860</v>
       </c>
@@ -9585,7 +9558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>328</v>
       </c>
@@ -9611,7 +9584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>934</v>
       </c>
@@ -9637,7 +9610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>521</v>
       </c>
@@ -9663,7 +9636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>27</v>
       </c>
@@ -9689,7 +9662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>313</v>
       </c>
@@ -9715,7 +9688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>490</v>
       </c>
@@ -9741,7 +9714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>526</v>
       </c>
@@ -9767,7 +9740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>215</v>
       </c>
@@ -9793,7 +9766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>887</v>
       </c>
@@ -9819,7 +9792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>898</v>
       </c>
@@ -9845,7 +9818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>792</v>
       </c>
@@ -9871,7 +9844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>583</v>
       </c>
@@ -9897,7 +9870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>911</v>
       </c>
@@ -9923,7 +9896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>922</v>
       </c>
@@ -9949,7 +9922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>84</v>
       </c>
@@ -9975,7 +9948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>810</v>
       </c>
@@ -10001,7 +9974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>416</v>
       </c>
@@ -10027,7 +10000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>524</v>
       </c>
@@ -10053,7 +10026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>879</v>
       </c>
@@ -10079,7 +10052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>464</v>
       </c>
@@ -10105,7 +10078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>87</v>
       </c>
@@ -10131,7 +10104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>117</v>
       </c>
@@ -10157,7 +10130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>674</v>
       </c>
@@ -10183,7 +10156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>320</v>
       </c>
@@ -10209,7 +10182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>333</v>
       </c>
@@ -10235,7 +10208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>527</v>
       </c>
@@ -10261,7 +10234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>673</v>
       </c>
@@ -10287,7 +10260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>690</v>
       </c>
@@ -10313,7 +10286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>507</v>
       </c>
@@ -10339,7 +10312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>805</v>
       </c>
@@ -10365,7 +10338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>996</v>
       </c>
@@ -10391,7 +10364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>129</v>
       </c>
@@ -10417,7 +10390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>799</v>
       </c>
@@ -10443,7 +10416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>143</v>
       </c>
@@ -10469,7 +10442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>154</v>
       </c>
@@ -10495,7 +10468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>741</v>
       </c>
@@ -10521,7 +10494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>705</v>
       </c>
@@ -10547,7 +10520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>169</v>
       </c>
@@ -10573,7 +10546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>856</v>
       </c>
@@ -10599,7 +10572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>711</v>
       </c>
@@ -10625,7 +10598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>332</v>
       </c>
@@ -10651,7 +10624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>707</v>
       </c>
@@ -10677,7 +10650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>865</v>
       </c>
@@ -10703,7 +10676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>645</v>
       </c>
@@ -10729,7 +10702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>945</v>
       </c>
@@ -10755,7 +10728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>140</v>
       </c>
@@ -10781,7 +10754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>589</v>
       </c>
@@ -10807,7 +10780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>642</v>
       </c>
@@ -10833,7 +10806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>177</v>
       </c>
@@ -10859,7 +10832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>512</v>
       </c>
@@ -10885,7 +10858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>184</v>
       </c>
@@ -10911,7 +10884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>577</v>
       </c>
@@ -10937,7 +10910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>278</v>
       </c>
@@ -10963,7 +10936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>114</v>
       </c>
@@ -10989,7 +10962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>297</v>
       </c>
@@ -11015,7 +10988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>733</v>
       </c>
@@ -11041,7 +11014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>116</v>
       </c>
@@ -11067,7 +11040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>809</v>
       </c>
@@ -11093,7 +11066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>321</v>
       </c>
@@ -11119,7 +11092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>119</v>
       </c>
@@ -11145,7 +11118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>96</v>
       </c>
@@ -11171,7 +11144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>772</v>
       </c>
@@ -11197,7 +11170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>776</v>
       </c>
@@ -11223,7 +11196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>35</v>
       </c>
@@ -11249,7 +11222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>928</v>
       </c>
@@ -11275,7 +11248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>32</v>
       </c>
@@ -11301,7 +11274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>552</v>
       </c>
@@ -11327,7 +11300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>434</v>
       </c>
@@ -11353,7 +11326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>286</v>
       </c>
@@ -11379,7 +11352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>900</v>
       </c>
@@ -11405,7 +11378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>101</v>
       </c>
@@ -11431,7 +11404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>164</v>
       </c>
@@ -11457,7 +11430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>825</v>
       </c>
@@ -11483,7 +11456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>677</v>
       </c>
@@ -11509,7 +11482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>91</v>
       </c>
@@ -11535,7 +11508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>680</v>
       </c>
@@ -11561,7 +11534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>369</v>
       </c>
@@ -11587,7 +11560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>729</v>
       </c>
@@ -11613,7 +11586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>448</v>
       </c>
@@ -11639,7 +11612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>896</v>
       </c>
@@ -11665,7 +11638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>902</v>
       </c>
@@ -11691,7 +11664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>892</v>
       </c>
@@ -11717,7 +11690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>817</v>
       </c>
@@ -11743,7 +11716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>477</v>
       </c>
@@ -11769,7 +11742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>427</v>
       </c>
@@ -11795,7 +11768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>285</v>
       </c>
@@ -11821,7 +11794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>158</v>
       </c>
@@ -11847,7 +11820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>237</v>
       </c>
@@ -11873,7 +11846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>804</v>
       </c>
@@ -11899,7 +11872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>914</v>
       </c>
@@ -11925,7 +11898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>233</v>
       </c>
@@ -11951,7 +11924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>635</v>
       </c>
@@ -11977,7 +11950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>594</v>
       </c>
@@ -12003,7 +11976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>880</v>
       </c>
@@ -12029,7 +12002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>977</v>
       </c>
@@ -12055,7 +12028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>721</v>
       </c>
@@ -12081,7 +12054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>483</v>
       </c>
@@ -12107,7 +12080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>878</v>
       </c>
@@ -12133,7 +12106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>932</v>
       </c>
@@ -12159,7 +12132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>202</v>
       </c>
@@ -12185,7 +12158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>728</v>
       </c>
@@ -12211,7 +12184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>14</v>
       </c>
@@ -12237,7 +12210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>596</v>
       </c>
@@ -12263,7 +12236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>276</v>
       </c>
@@ -12289,7 +12262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>745</v>
       </c>
@@ -12315,7 +12288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>38</v>
       </c>
@@ -12341,7 +12314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>816</v>
       </c>
@@ -12367,7 +12340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>701</v>
       </c>
@@ -12393,7 +12366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>97</v>
       </c>
@@ -12419,7 +12392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>684</v>
       </c>
@@ -12445,7 +12418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>268</v>
       </c>
@@ -12471,7 +12444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>949</v>
       </c>
@@ -12497,7 +12470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>708</v>
       </c>
@@ -12523,7 +12496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>779</v>
       </c>
@@ -12549,7 +12522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>224</v>
       </c>
@@ -12575,7 +12548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>599</v>
       </c>
@@ -12601,7 +12574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>986</v>
       </c>
@@ -12627,7 +12600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>647</v>
       </c>
@@ -12653,7 +12626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>628</v>
       </c>
@@ -12679,7 +12652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>197</v>
       </c>
@@ -12705,7 +12678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>298</v>
       </c>
@@ -12731,7 +12704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>622</v>
       </c>
@@ -12757,7 +12730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>502</v>
       </c>
@@ -12783,7 +12756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>341</v>
       </c>
@@ -12809,7 +12782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>987</v>
       </c>
@@ -12835,7 +12808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>937</v>
       </c>
@@ -12861,7 +12834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>167</v>
       </c>
@@ -12887,7 +12860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>719</v>
       </c>
@@ -12913,7 +12886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>988</v>
       </c>
@@ -12939,7 +12912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>867</v>
       </c>
@@ -12965,7 +12938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>637</v>
       </c>
@@ -12991,7 +12964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>731</v>
       </c>
@@ -13017,7 +12990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>630</v>
       </c>
@@ -13043,7 +13016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>73</v>
       </c>
@@ -13069,7 +13042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>294</v>
       </c>
@@ -13095,7 +13068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>516</v>
       </c>
@@ -13121,7 +13094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>648</v>
       </c>
@@ -13147,7 +13120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>138</v>
       </c>
@@ -13173,7 +13146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>720</v>
       </c>
@@ -13199,7 +13172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>480</v>
       </c>
@@ -13225,7 +13198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>441</v>
       </c>
@@ -13251,7 +13224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>737</v>
       </c>
@@ -13277,7 +13250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>115</v>
       </c>
@@ -13303,7 +13276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>704</v>
       </c>
@@ -13329,7 +13302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>806</v>
       </c>
@@ -13355,7 +13328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>506</v>
       </c>
@@ -13381,7 +13354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>874</v>
       </c>
@@ -13407,7 +13380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>442</v>
       </c>
@@ -13433,7 +13406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>46</v>
       </c>
@@ -13459,7 +13432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>944</v>
       </c>
@@ -13485,7 +13458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>554</v>
       </c>
@@ -13511,7 +13484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>436</v>
       </c>
@@ -13537,7 +13510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>536</v>
       </c>
@@ -13563,7 +13536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>612</v>
       </c>
@@ -13589,7 +13562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>214</v>
       </c>
@@ -13615,7 +13588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>726</v>
       </c>
@@ -13641,7 +13614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>877</v>
       </c>
@@ -13667,7 +13640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>323</v>
       </c>
@@ -13693,7 +13666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>127</v>
       </c>
@@ -13719,7 +13692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>360</v>
       </c>
@@ -13745,7 +13718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>49</v>
       </c>
@@ -13771,7 +13744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>310</v>
       </c>
@@ -13797,7 +13770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>52</v>
       </c>
@@ -13823,7 +13796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>446</v>
       </c>
@@ -13849,7 +13822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>256</v>
       </c>
@@ -13875,7 +13848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>783</v>
       </c>
@@ -13901,7 +13874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>272</v>
       </c>
@@ -13927,7 +13900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>573</v>
       </c>
@@ -13953,7 +13926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>713</v>
       </c>
@@ -13979,7 +13952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44</v>
       </c>
@@ -14005,7 +13978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>29</v>
       </c>
@@ -14031,7 +14004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>544</v>
       </c>
@@ -14057,7 +14030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>919</v>
       </c>
@@ -14083,7 +14056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>280</v>
       </c>
@@ -14109,7 +14082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>800</v>
       </c>
@@ -14135,7 +14108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>845</v>
       </c>
@@ -14161,7 +14134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>884</v>
       </c>
@@ -14187,7 +14160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>500</v>
       </c>
@@ -14213,7 +14186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>95</v>
       </c>
@@ -14239,7 +14212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>942</v>
       </c>
@@ -14265,7 +14238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>815</v>
       </c>
@@ -14291,7 +14264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>649</v>
       </c>
@@ -14317,7 +14290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>443</v>
       </c>
@@ -14343,7 +14316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>368</v>
       </c>
@@ -14369,7 +14342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>40</v>
       </c>
@@ -14395,7 +14368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>910</v>
       </c>
@@ -14421,7 +14394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>960</v>
       </c>
@@ -14447,7 +14420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>974</v>
       </c>
@@ -14473,7 +14446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>295</v>
       </c>
@@ -14499,7 +14472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>529</v>
       </c>
@@ -14525,7 +14498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>236</v>
       </c>
@@ -14551,7 +14524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>337</v>
       </c>
@@ -14577,7 +14550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>669</v>
       </c>
@@ -14603,7 +14576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>100</v>
       </c>
@@ -14629,7 +14602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>559</v>
       </c>
@@ -14655,7 +14628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>920</v>
       </c>
@@ -14681,7 +14654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>339</v>
       </c>
@@ -14707,7 +14680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>847</v>
       </c>
@@ -14733,7 +14706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>723</v>
       </c>
@@ -14759,7 +14732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>225</v>
       </c>
@@ -14785,7 +14758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>487</v>
       </c>
@@ -14811,7 +14784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>238</v>
       </c>
@@ -14837,7 +14810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>662</v>
       </c>
@@ -14863,7 +14836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>171</v>
       </c>
@@ -14889,7 +14862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>352</v>
       </c>
@@ -14915,7 +14888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>511</v>
       </c>
@@ -14941,7 +14914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>39</v>
       </c>
@@ -14967,7 +14940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>284</v>
       </c>
@@ -14993,7 +14966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>712</v>
       </c>
@@ -15019,7 +14992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>149</v>
       </c>
@@ -15045,7 +15018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>1</v>
       </c>
@@ -15071,7 +15044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>403</v>
       </c>
@@ -15097,7 +15070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>267</v>
       </c>
@@ -15123,7 +15096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>245</v>
       </c>
@@ -15149,7 +15122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>418</v>
       </c>
@@ -15175,7 +15148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>497</v>
       </c>
@@ -15201,7 +15174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>740</v>
       </c>
@@ -15227,7 +15200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>305</v>
       </c>
@@ -15253,7 +15226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>316</v>
       </c>
@@ -15279,7 +15252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>150</v>
       </c>
@@ -15305,7 +15278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>136</v>
       </c>
@@ -15331,7 +15304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>210</v>
       </c>
@@ -15357,7 +15330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>456</v>
       </c>
@@ -15383,7 +15356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>695</v>
       </c>
@@ -15409,7 +15382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>716</v>
       </c>
@@ -15435,7 +15408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>475</v>
       </c>
@@ -15461,7 +15434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>170</v>
       </c>
@@ -15487,7 +15460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>388</v>
       </c>
@@ -15513,7 +15486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>525</v>
       </c>
@@ -15539,7 +15512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>141</v>
       </c>
@@ -15565,7 +15538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>15</v>
       </c>
@@ -15591,7 +15564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>458</v>
       </c>
@@ -15617,7 +15590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>802</v>
       </c>
@@ -15643,7 +15616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>972</v>
       </c>
@@ -15669,7 +15642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>460</v>
       </c>
@@ -15695,7 +15668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>621</v>
       </c>
@@ -15721,7 +15694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>967</v>
       </c>
@@ -15747,7 +15720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>955</v>
       </c>
@@ -15773,7 +15746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>639</v>
       </c>
@@ -15799,7 +15772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>940</v>
       </c>
@@ -15825,7 +15798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>282</v>
       </c>
@@ -15851,7 +15824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>220</v>
       </c>
@@ -15877,7 +15850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>848</v>
       </c>
@@ -15903,7 +15876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>576</v>
       </c>
@@ -15929,7 +15902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>627</v>
       </c>
@@ -15955,7 +15928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>9</v>
       </c>
@@ -15981,7 +15954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>317</v>
       </c>
@@ -16007,7 +15980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>614</v>
       </c>
@@ -16033,7 +16006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>787</v>
       </c>
@@ -16059,7 +16032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>730</v>
       </c>
@@ -16085,7 +16058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>590</v>
       </c>
@@ -16111,7 +16084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>876</v>
       </c>
@@ -16137,7 +16110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>54</v>
       </c>
@@ -16163,7 +16136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>391</v>
       </c>
@@ -16189,7 +16162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>179</v>
       </c>
@@ -16215,7 +16188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>634</v>
       </c>
@@ -16241,7 +16214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>243</v>
       </c>
@@ -16267,7 +16240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>131</v>
       </c>
@@ -16293,7 +16266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>858</v>
       </c>
@@ -16319,7 +16292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>485</v>
       </c>
@@ -16345,7 +16318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>76</v>
       </c>
@@ -16371,7 +16344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>160</v>
       </c>
@@ -16397,7 +16370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>265</v>
       </c>
@@ -16423,7 +16396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>603</v>
       </c>
@@ -16449,7 +16422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>108</v>
       </c>
@@ -16475,7 +16448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>300</v>
       </c>
@@ -16501,7 +16474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>597</v>
       </c>
@@ -16527,7 +16500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>727</v>
       </c>
@@ -16553,7 +16526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>401</v>
       </c>
@@ -16579,7 +16552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>838</v>
       </c>
@@ -16605,7 +16578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>686</v>
       </c>
@@ -16631,7 +16604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>650</v>
       </c>
@@ -16657,7 +16630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>755</v>
       </c>
@@ -16683,7 +16656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>62</v>
       </c>
@@ -16709,7 +16682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>257</v>
       </c>
@@ -16735,7 +16708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>71</v>
       </c>
@@ -16761,7 +16734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>16</v>
       </c>
@@ -16787,7 +16760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>426</v>
       </c>
@@ -16813,7 +16786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>216</v>
       </c>
@@ -16839,7 +16812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>279</v>
       </c>
@@ -16865,7 +16838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>908</v>
       </c>
@@ -16891,7 +16864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>833</v>
       </c>
@@ -16917,7 +16890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>801</v>
       </c>
@@ -16943,7 +16916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>558</v>
       </c>
@@ -16969,7 +16942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>764</v>
       </c>
@@ -16995,7 +16968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>146</v>
       </c>
@@ -17021,7 +16994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>921</v>
       </c>
@@ -17047,7 +17020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>492</v>
       </c>
@@ -17073,7 +17046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>289</v>
       </c>
@@ -17099,7 +17072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>715</v>
       </c>
@@ -17125,7 +17098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>997</v>
       </c>
@@ -17151,7 +17124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>775</v>
       </c>
@@ -17177,7 +17150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>798</v>
       </c>
@@ -17203,7 +17176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>346</v>
       </c>
@@ -17229,7 +17202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>739</v>
       </c>
@@ -17255,7 +17228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>335</v>
       </c>
@@ -17281,7 +17254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>407</v>
       </c>
@@ -17307,7 +17280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>203</v>
       </c>
@@ -17333,7 +17306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>181</v>
       </c>
@@ -17359,7 +17332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>208</v>
       </c>
@@ -17385,7 +17358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>122</v>
       </c>
@@ -17411,7 +17384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>587</v>
       </c>
@@ -17437,7 +17410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>324</v>
       </c>
@@ -17463,7 +17436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>66</v>
       </c>
@@ -17489,7 +17462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>633</v>
       </c>
@@ -17515,7 +17488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>162</v>
       </c>
@@ -17541,7 +17514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>269</v>
       </c>
@@ -17567,7 +17540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>572</v>
       </c>
@@ -17593,7 +17566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>64</v>
       </c>
@@ -17619,7 +17592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>796</v>
       </c>
@@ -17645,7 +17618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>655</v>
       </c>
@@ -17671,7 +17644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>281</v>
       </c>
@@ -17697,7 +17670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>192</v>
       </c>
@@ -17723,7 +17696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>33</v>
       </c>
@@ -17749,7 +17722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>768</v>
       </c>
@@ -17775,7 +17748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>998</v>
       </c>
@@ -17801,7 +17774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>331</v>
       </c>
@@ -17827,7 +17800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>836</v>
       </c>
@@ -17853,7 +17826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>251</v>
       </c>
@@ -17879,7 +17852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>831</v>
       </c>
@@ -17905,7 +17878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>405</v>
       </c>
@@ -17931,7 +17904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>199</v>
       </c>
@@ -17957,7 +17930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>832</v>
       </c>
@@ -17983,7 +17956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>250</v>
       </c>
@@ -18009,7 +17982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>231</v>
       </c>
@@ -18035,7 +18008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>797</v>
       </c>
@@ -18061,7 +18034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>615</v>
       </c>
@@ -18087,7 +18060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>404</v>
       </c>
@@ -18113,7 +18086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>901</v>
       </c>
@@ -18139,7 +18112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>553</v>
       </c>
@@ -18165,7 +18138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>174</v>
       </c>
@@ -18191,7 +18164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>515</v>
       </c>
@@ -18217,7 +18190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>952</v>
       </c>
@@ -18243,7 +18216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>906</v>
       </c>
@@ -18269,7 +18242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>517</v>
       </c>
@@ -18295,7 +18268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>771</v>
       </c>
@@ -18321,7 +18294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>773</v>
       </c>
@@ -18347,7 +18320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>651</v>
       </c>
@@ -18373,7 +18346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>362</v>
       </c>
@@ -18399,7 +18372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>675</v>
       </c>
@@ -18425,7 +18398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>90</v>
       </c>
@@ -18451,7 +18424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>697</v>
       </c>
@@ -18477,7 +18450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>385</v>
       </c>
@@ -18503,7 +18476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>915</v>
       </c>
@@ -18529,7 +18502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>699</v>
       </c>
@@ -18555,7 +18528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>935</v>
       </c>
@@ -18581,7 +18554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>872</v>
       </c>
@@ -18607,7 +18580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>432</v>
       </c>
@@ -18633,7 +18606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>930</v>
       </c>
@@ -18659,7 +18632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>501</v>
       </c>
@@ -18685,7 +18658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>440</v>
       </c>
@@ -18711,7 +18684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>37</v>
       </c>
@@ -18737,7 +18710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>232</v>
       </c>
@@ -18763,7 +18736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>205</v>
       </c>
@@ -18789,7 +18762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>568</v>
       </c>
@@ -18815,7 +18788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>575</v>
       </c>
@@ -18841,7 +18814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>765</v>
       </c>
@@ -18867,7 +18840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>18</v>
       </c>
@@ -18893,7 +18866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>518</v>
       </c>
@@ -18919,7 +18892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>938</v>
       </c>
@@ -18945,7 +18918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>540</v>
       </c>
@@ -18971,7 +18944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>691</v>
       </c>
@@ -18997,7 +18970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>610</v>
       </c>
@@ -19023,7 +18996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>78</v>
       </c>
@@ -19049,7 +19022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>788</v>
       </c>
@@ -19075,7 +19048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>618</v>
       </c>
@@ -19101,7 +19074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>120</v>
       </c>
@@ -19127,7 +19100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>907</v>
       </c>
@@ -19153,7 +19126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>24</v>
       </c>
@@ -19179,7 +19152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>348</v>
       </c>
@@ -19205,7 +19178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>406</v>
       </c>
@@ -19231,7 +19204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>993</v>
       </c>
@@ -19257,7 +19230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>67</v>
       </c>
@@ -19283,7 +19256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>89</v>
       </c>
@@ -19309,7 +19282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>981</v>
       </c>
@@ -19335,7 +19308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>379</v>
       </c>
@@ -19361,7 +19334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>827</v>
       </c>
@@ -19387,7 +19360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>277</v>
       </c>
@@ -19413,7 +19386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>309</v>
       </c>
@@ -19439,7 +19412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>679</v>
       </c>
@@ -19465,7 +19438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>566</v>
       </c>
@@ -19491,7 +19464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>917</v>
       </c>
@@ -19517,7 +19490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>325</v>
       </c>
@@ -19543,7 +19516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>844</v>
       </c>
@@ -19569,7 +19542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>273</v>
       </c>
@@ -19595,7 +19568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>364</v>
       </c>
@@ -19621,7 +19594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>643</v>
       </c>
@@ -19647,7 +19620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>58</v>
       </c>
@@ -19673,7 +19646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>883</v>
       </c>
@@ -19699,7 +19672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>420</v>
       </c>
@@ -19725,7 +19698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>964</v>
       </c>
@@ -19751,7 +19724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>984</v>
       </c>
@@ -19777,7 +19750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>954</v>
       </c>
@@ -19803,7 +19776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>541</v>
       </c>
@@ -19829,7 +19802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>537</v>
       </c>
@@ -19855,7 +19828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>803</v>
       </c>
@@ -19881,7 +19854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>958</v>
       </c>
@@ -19907,7 +19880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>706</v>
       </c>
@@ -19933,7 +19906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>990</v>
       </c>
@@ -19959,7 +19932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>227</v>
       </c>
@@ -19985,7 +19958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>593</v>
       </c>
@@ -20011,7 +19984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>249</v>
       </c>
@@ -20037,7 +20010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>578</v>
       </c>
@@ -20063,7 +20036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>873</v>
       </c>
@@ -20089,7 +20062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>386</v>
       </c>
@@ -20115,7 +20088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>861</v>
       </c>
@@ -20141,7 +20114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>676</v>
       </c>
@@ -20167,7 +20140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>667</v>
       </c>
@@ -20193,7 +20166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>869</v>
       </c>
@@ -20219,7 +20192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>795</v>
       </c>
@@ -20245,7 +20218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>41</v>
       </c>
@@ -20271,7 +20244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>12</v>
       </c>
@@ -20297,7 +20270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>508</v>
       </c>
@@ -20323,7 +20296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>283</v>
       </c>
@@ -20349,7 +20322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>229</v>
       </c>
@@ -20375,7 +20348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>909</v>
       </c>
@@ -20401,7 +20374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>206</v>
       </c>
@@ -20427,7 +20400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>671</v>
       </c>
@@ -20453,7 +20426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>287</v>
       </c>
@@ -20479,7 +20452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>255</v>
       </c>
@@ -20505,7 +20478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>201</v>
       </c>
@@ -20531,7 +20504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>111</v>
       </c>
@@ -20557,7 +20530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>725</v>
       </c>
@@ -20583,7 +20556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>439</v>
       </c>
@@ -20609,7 +20582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>155</v>
       </c>
@@ -20635,7 +20608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>608</v>
       </c>
@@ -20661,7 +20634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>190</v>
       </c>
@@ -20687,7 +20660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>126</v>
       </c>
@@ -20713,7 +20686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>839</v>
       </c>
@@ -20739,7 +20712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>743</v>
       </c>
@@ -20765,7 +20738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>999</v>
       </c>
@@ -20791,7 +20764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>736</v>
       </c>
@@ -20817,7 +20790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>862</v>
       </c>
@@ -20843,7 +20816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>148</v>
       </c>
@@ -20869,7 +20842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>242</v>
       </c>
@@ -20895,7 +20868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>664</v>
       </c>
@@ -20921,7 +20894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>668</v>
       </c>
@@ -20947,7 +20920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>841</v>
       </c>
@@ -20973,7 +20946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>846</v>
       </c>
@@ -20999,7 +20972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>893</v>
       </c>
@@ -21025,7 +20998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>168</v>
       </c>
@@ -21051,7 +21024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>522</v>
       </c>
@@ -21077,7 +21050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>30</v>
       </c>
@@ -21103,7 +21076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>763</v>
       </c>
@@ -21129,7 +21102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>840</v>
       </c>
@@ -21155,7 +21128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>344</v>
       </c>
@@ -21181,7 +21154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>687</v>
       </c>
@@ -21207,7 +21180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>665</v>
       </c>
@@ -21233,7 +21206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>854</v>
       </c>
@@ -21259,7 +21232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>358</v>
       </c>
@@ -21285,7 +21258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>586</v>
       </c>
@@ -21311,7 +21284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>751</v>
       </c>
@@ -21337,7 +21310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>218</v>
       </c>
@@ -21363,7 +21336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>870</v>
       </c>
@@ -21389,7 +21362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>241</v>
       </c>
@@ -21415,7 +21388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>722</v>
       </c>
@@ -21441,7 +21414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>28</v>
       </c>
@@ -21467,7 +21440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>654</v>
       </c>
@@ -21493,7 +21466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>636</v>
       </c>
@@ -21519,7 +21492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>247</v>
       </c>
@@ -21545,7 +21518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>57</v>
       </c>
@@ -21571,7 +21544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>469</v>
       </c>
@@ -21597,7 +21570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>757</v>
       </c>
@@ -21623,7 +21596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>370</v>
       </c>
@@ -21649,7 +21622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>402</v>
       </c>
@@ -21675,7 +21648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>121</v>
       </c>
@@ -21701,7 +21674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>752</v>
       </c>
@@ -21727,7 +21700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>428</v>
       </c>
@@ -21753,7 +21726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>301</v>
       </c>
@@ -21779,7 +21752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>625</v>
       </c>
@@ -21805,7 +21778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>519</v>
       </c>
@@ -21831,7 +21804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>748</v>
       </c>
@@ -21857,7 +21830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>77</v>
       </c>
@@ -21883,7 +21856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>709</v>
       </c>
@@ -21909,7 +21882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>813</v>
       </c>
@@ -21935,7 +21908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>808</v>
       </c>
@@ -21961,7 +21934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>769</v>
       </c>
@@ -21987,7 +21960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>547</v>
       </c>
@@ -22013,7 +21986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>254</v>
       </c>
@@ -22039,7 +22012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>570</v>
       </c>
@@ -22065,7 +22038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>142</v>
       </c>
@@ -22091,7 +22064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>429</v>
       </c>
@@ -22117,7 +22090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>112</v>
       </c>
@@ -22143,7 +22116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>696</v>
       </c>
@@ -22169,12 +22142,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>617</v>
       </c>
       <c r="B836">
-        <v>67069.401890328314</v>
+        <v>167069.40189032801</v>
       </c>
       <c r="C836">
         <v>5872.6930934853208</v>
@@ -22195,7 +22168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>652</v>
       </c>
@@ -22203,7 +22176,7 @@
         <v>60713.965089226578</v>
       </c>
       <c r="C837">
-        <v>6553.0403381557762</v>
+        <v>6553.0403381557799</v>
       </c>
       <c r="D837">
         <v>4</v>
@@ -22221,7 +22194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>842</v>
       </c>
@@ -22247,7 +22220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>302</v>
       </c>
@@ -22273,7 +22246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>631</v>
       </c>
@@ -22299,7 +22272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>659</v>
       </c>
@@ -22325,7 +22298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>355</v>
       </c>
@@ -22351,7 +22324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>109</v>
       </c>
@@ -22377,7 +22350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>172</v>
       </c>
@@ -22403,7 +22376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>644</v>
       </c>
@@ -22429,7 +22402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>72</v>
       </c>
@@ -22455,7 +22428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>661</v>
       </c>
@@ -22481,7 +22454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>969</v>
       </c>
@@ -22507,7 +22480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>450</v>
       </c>
@@ -22533,7 +22506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>438</v>
       </c>
@@ -22559,7 +22532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>499</v>
       </c>
@@ -22585,7 +22558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>567</v>
       </c>
@@ -22611,7 +22584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>894</v>
       </c>
@@ -22637,7 +22610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>88</v>
       </c>
@@ -22663,7 +22636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>357</v>
       </c>
@@ -22689,7 +22662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>658</v>
       </c>
@@ -22715,7 +22688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>22</v>
       </c>
@@ -22741,7 +22714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>595</v>
       </c>
@@ -22767,7 +22740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>398</v>
       </c>
@@ -22793,7 +22766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>48</v>
       </c>
@@ -22819,7 +22792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>397</v>
       </c>
@@ -22845,7 +22818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>447</v>
       </c>
@@ -22871,7 +22844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>230</v>
       </c>
@@ -22897,7 +22870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>782</v>
       </c>
@@ -22923,7 +22896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>738</v>
       </c>
@@ -22949,7 +22922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>925</v>
       </c>
@@ -22975,7 +22948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>213</v>
       </c>
@@ -23001,7 +22974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>982</v>
       </c>
@@ -23027,7 +23000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>970</v>
       </c>
@@ -23053,7 +23026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>563</v>
       </c>
@@ -23079,7 +23052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>6</v>
       </c>
@@ -23105,7 +23078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>372</v>
       </c>
@@ -23131,7 +23104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>178</v>
       </c>
@@ -23157,7 +23130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>21</v>
       </c>
@@ -23183,7 +23156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>702</v>
       </c>
@@ -23209,7 +23182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>503</v>
       </c>
@@ -23235,7 +23208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>871</v>
       </c>
@@ -23261,7 +23234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>963</v>
       </c>
@@ -23287,7 +23260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>812</v>
       </c>
@@ -23313,7 +23286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>965</v>
       </c>
@@ -23339,7 +23312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>462</v>
       </c>
@@ -23365,7 +23338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>431</v>
       </c>
@@ -23391,7 +23364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>396</v>
       </c>
@@ -23417,7 +23390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>419</v>
       </c>
@@ -23443,7 +23416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>850</v>
       </c>
@@ -23469,7 +23442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>92</v>
       </c>
@@ -23495,7 +23468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>528</v>
       </c>
@@ -23521,7 +23494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>99</v>
       </c>
@@ -23547,7 +23520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>479</v>
       </c>
@@ -23573,7 +23546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>173</v>
       </c>
@@ -23599,7 +23572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>326</v>
       </c>
@@ -23625,7 +23598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>367</v>
       </c>
@@ -23651,7 +23624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>157</v>
       </c>
@@ -23677,7 +23650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>263</v>
       </c>
@@ -23703,7 +23676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>340</v>
       </c>
@@ -23729,7 +23702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>916</v>
       </c>
@@ -23755,7 +23728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>175</v>
       </c>
@@ -23781,7 +23754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>941</v>
       </c>
@@ -23807,7 +23780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>457</v>
       </c>
@@ -23833,7 +23806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>484</v>
       </c>
@@ -23859,7 +23832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>299</v>
       </c>
@@ -23885,7 +23858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>489</v>
       </c>
@@ -23911,7 +23884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>530</v>
       </c>
@@ -23937,7 +23910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>271</v>
       </c>
@@ -23963,7 +23936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -23989,7 +23962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>106</v>
       </c>
@@ -24015,7 +23988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>520</v>
       </c>
@@ -24041,7 +24014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>234</v>
       </c>
@@ -24067,7 +24040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>747</v>
       </c>
@@ -24093,7 +24066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>147</v>
       </c>
@@ -24119,7 +24092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>819</v>
       </c>
@@ -24145,7 +24118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>43</v>
       </c>
@@ -24171,7 +24144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>2</v>
       </c>
@@ -24197,7 +24170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>123</v>
       </c>
@@ -24223,7 +24196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>315</v>
       </c>
@@ -24249,7 +24222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>694</v>
       </c>
@@ -24275,7 +24248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>549</v>
       </c>
@@ -24301,7 +24274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>753</v>
       </c>
@@ -24327,7 +24300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>156</v>
       </c>
@@ -24353,7 +24326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>244</v>
       </c>
@@ -24379,7 +24352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>306</v>
       </c>
@@ -24405,7 +24378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>913</v>
       </c>
@@ -24431,7 +24404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>790</v>
       </c>
@@ -24457,7 +24430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>219</v>
       </c>
@@ -24483,7 +24456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>683</v>
       </c>
@@ -24509,7 +24482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>152</v>
       </c>
@@ -24535,7 +24508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>933</v>
       </c>
@@ -24561,7 +24534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>653</v>
       </c>
@@ -24587,7 +24560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>125</v>
       </c>
@@ -24613,7 +24586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>979</v>
       </c>
@@ -24639,7 +24612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>25</v>
       </c>
@@ -24665,7 +24638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>488</v>
       </c>
@@ -24691,7 +24664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>124</v>
       </c>
@@ -24717,7 +24690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>494</v>
       </c>
@@ -24743,7 +24716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>93</v>
       </c>
@@ -24769,7 +24742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>83</v>
       </c>
@@ -24795,7 +24768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>381</v>
       </c>
@@ -24821,7 +24794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>744</v>
       </c>
@@ -24847,7 +24820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>183</v>
       </c>
@@ -24873,7 +24846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>968</v>
       </c>
@@ -24899,7 +24872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>588</v>
       </c>
@@ -24925,7 +24898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>444</v>
       </c>
@@ -24951,7 +24924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>811</v>
       </c>
@@ -24977,7 +24950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>778</v>
       </c>
@@ -25003,7 +24976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>897</v>
       </c>
@@ -25029,7 +25002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>732</v>
       </c>
@@ -25055,7 +25028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>495</v>
       </c>
@@ -25081,7 +25054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>535</v>
       </c>
@@ -25107,7 +25080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>584</v>
       </c>
@@ -25133,7 +25106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>660</v>
       </c>
@@ -25159,7 +25132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>983</v>
       </c>
@@ -25185,7 +25158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>843</v>
       </c>
@@ -25211,7 +25184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>994</v>
       </c>
@@ -25237,7 +25210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>717</v>
       </c>
@@ -25263,7 +25236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>505</v>
       </c>
@@ -25289,7 +25262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>881</v>
       </c>
@@ -25315,7 +25288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>132</v>
       </c>
@@ -25341,7 +25314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>912</v>
       </c>
@@ -25367,7 +25340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>864</v>
       </c>
@@ -25393,7 +25366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>79</v>
       </c>
@@ -25419,7 +25392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>417</v>
       </c>
@@ -25445,7 +25418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>186</v>
       </c>
@@ -25471,7 +25444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>222</v>
       </c>
@@ -25497,7 +25470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>973</v>
       </c>
@@ -25523,7 +25496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>26</v>
       </c>
@@ -25549,7 +25522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>562</v>
       </c>
@@ -25575,7 +25548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>946</v>
       </c>
@@ -25601,7 +25574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>291</v>
       </c>
@@ -25627,7 +25600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>823</v>
       </c>
@@ -25653,7 +25626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>939</v>
       </c>
@@ -25679,7 +25652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>445</v>
       </c>
@@ -25705,7 +25678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>246</v>
       </c>
@@ -25731,7 +25704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>978</v>
       </c>
@@ -25757,7 +25730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>104</v>
       </c>
@@ -25783,7 +25756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>591</v>
       </c>
@@ -25809,7 +25782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>481</v>
       </c>
@@ -25835,7 +25808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>163</v>
       </c>
@@ -25861,7 +25834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>133</v>
       </c>
@@ -25887,7 +25860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>656</v>
       </c>
@@ -25913,7 +25886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>888</v>
       </c>
@@ -25939,7 +25912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>956</v>
       </c>
@@ -25965,7 +25938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>60</v>
       </c>
@@ -25991,7 +25964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>545</v>
       </c>
@@ -26017,7 +25990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>746</v>
       </c>
@@ -26043,7 +26016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>80</v>
       </c>
@@ -26069,7 +26042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>377</v>
       </c>
@@ -26095,7 +26068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>780</v>
       </c>
@@ -26121,7 +26094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>304</v>
       </c>
@@ -26147,7 +26120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>413</v>
       </c>
@@ -26173,7 +26146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>785</v>
       </c>
@@ -26199,7 +26172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>574</v>
       </c>
@@ -26225,7 +26198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>353</v>
       </c>
@@ -26251,7 +26224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>682</v>
       </c>
@@ -26277,7 +26250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>410</v>
       </c>
@@ -26303,7 +26276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>822</v>
       </c>
@@ -26329,7 +26302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>476</v>
       </c>
@@ -26355,7 +26328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>918</v>
       </c>
@@ -26381,7 +26354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>195</v>
       </c>
@@ -26407,7 +26380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>551</v>
       </c>
@@ -26433,7 +26406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>347</v>
       </c>
@@ -26459,7 +26432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>989</v>
       </c>
@@ -26482,6 +26455,136 @@
         <v>10</v>
       </c>
       <c r="H1001" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1">
+        <v>918</v>
+      </c>
+      <c r="B1002">
+        <v>74611.107967264194</v>
+      </c>
+      <c r="C1002">
+        <v>5768.4373855443146</v>
+      </c>
+      <c r="D1002">
+        <v>4</v>
+      </c>
+      <c r="E1002">
+        <v>0</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1">
+        <v>195</v>
+      </c>
+      <c r="B1003">
+        <v>74257.866249356332</v>
+      </c>
+      <c r="C1003">
+        <v>5779.1676152790942</v>
+      </c>
+      <c r="D1003">
+        <v>5</v>
+      </c>
+      <c r="E1003">
+        <v>2</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1">
+        <v>551</v>
+      </c>
+      <c r="B1004">
+        <v>73729.910713032135</v>
+      </c>
+      <c r="C1004">
+        <v>5292.6126385402213</v>
+      </c>
+      <c r="D1004">
+        <v>5</v>
+      </c>
+      <c r="E1004">
+        <v>1</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1">
+        <v>347</v>
+      </c>
+      <c r="B1005">
+        <v>64491.383514339657</v>
+      </c>
+      <c r="C1005">
+        <v>4979.530835572381</v>
+      </c>
+      <c r="D1005">
+        <v>3</v>
+      </c>
+      <c r="E1005">
+        <v>1</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1">
+        <v>989</v>
+      </c>
+      <c r="B1006">
+        <v>79190.41407697885</v>
+      </c>
+      <c r="C1006">
+        <v>6767.9654812739163</v>
+      </c>
+      <c r="D1006">
+        <v>4</v>
+      </c>
+      <c r="E1006">
+        <v>1</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1006" t="s">
         <v>12</v>
       </c>
     </row>
